--- a/database/industries/shoyande/shegol/cashflow/quarterly.xlsx
+++ b/database/industries/shoyande/shegol/cashflow/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shegol\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4DFE4F-44E1-4ADE-A5CE-272164D48157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شگل-گلتاش‌</t>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,13 +49,13 @@
     <t>فصل سوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-08-06 (3)</t>
-  </si>
-  <si>
-    <t>1401-08-06 (6)</t>
+    <t>1401-10-30 (7)</t>
   </si>
   <si>
     <t>1401-01-30</t>
@@ -67,6 +65,9 @@
   </si>
   <si>
     <t>1401-08-06</t>
+  </si>
+  <si>
+    <t>1401-10-30</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -213,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,7 +412,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -423,7 +424,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -470,6 +471,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -505,6 +523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,21 +691,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -679,7 +714,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -690,7 +725,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,7 +736,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -710,7 +745,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -721,7 +756,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -732,7 +767,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -741,7 +776,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -762,7 +797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -783,7 +818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -792,7 +827,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -803,70 +838,70 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>-40437</v>
+        <v>266197</v>
       </c>
       <c r="E12" s="15">
-        <v>266197</v>
+        <v>-67251</v>
       </c>
       <c r="F12" s="15">
-        <v>-67251</v>
+        <v>785357</v>
       </c>
       <c r="G12" s="15">
-        <v>785357</v>
+        <v>12148</v>
       </c>
       <c r="H12" s="15">
-        <v>12148</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1296702</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-128809</v>
+        <v>-118770</v>
       </c>
       <c r="E13" s="11">
-        <v>-118770</v>
+        <v>-67667</v>
       </c>
       <c r="F13" s="11">
-        <v>-67667</v>
+        <v>-88612</v>
       </c>
       <c r="G13" s="11">
-        <v>-88612</v>
+        <v>-42353</v>
       </c>
       <c r="H13" s="11">
-        <v>-42353</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-125733</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>-169246</v>
+        <v>147427</v>
       </c>
       <c r="E14" s="17">
-        <v>147427</v>
+        <v>-134918</v>
       </c>
       <c r="F14" s="17">
-        <v>-134918</v>
+        <v>696745</v>
       </c>
       <c r="G14" s="17">
-        <v>696745</v>
+        <v>-30205</v>
       </c>
       <c r="H14" s="17">
-        <v>-30205</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1170969</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -877,16 +912,16 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E16" s="15">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
@@ -895,31 +930,31 @@
         <v>0</v>
       </c>
       <c r="H16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-174735</v>
+        <v>-502879</v>
       </c>
       <c r="E17" s="11">
-        <v>-502879</v>
+        <v>-58547</v>
       </c>
       <c r="F17" s="11">
-        <v>-58547</v>
+        <v>-2847</v>
       </c>
       <c r="G17" s="11">
-        <v>-2847</v>
+        <v>-41940</v>
       </c>
       <c r="H17" s="11">
-        <v>-41940</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-14158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -940,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -961,28 +996,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>-250</v>
+        <v>-580</v>
       </c>
       <c r="E20" s="15">
-        <v>-580</v>
+        <v>0</v>
       </c>
       <c r="F20" s="15">
-        <v>0</v>
+        <v>-814</v>
       </c>
       <c r="G20" s="15">
-        <v>-814</v>
+        <v>0</v>
       </c>
       <c r="H20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1003,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
@@ -1024,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1045,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1063,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-111967</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>30</v>
       </c>
@@ -1075,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>49260</v>
       </c>
       <c r="F25" s="11">
-        <v>49260</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
       </c>
       <c r="H25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>31</v>
       </c>
@@ -1108,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>32</v>
       </c>
@@ -1129,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>33</v>
       </c>
@@ -1150,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
@@ -1171,91 +1206,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="E30" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F30" s="15">
         <v>0</v>
       </c>
       <c r="G30" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H30" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>8242</v>
+        <v>5709</v>
       </c>
       <c r="E31" s="11">
-        <v>5709</v>
+        <v>2651</v>
       </c>
       <c r="F31" s="11">
-        <v>2651</v>
+        <v>1673</v>
       </c>
       <c r="G31" s="11">
-        <v>1673</v>
+        <v>3165</v>
       </c>
       <c r="H31" s="11">
-        <v>3165</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-166461</v>
+        <v>-497456</v>
       </c>
       <c r="E32" s="17">
-        <v>-497456</v>
+        <v>-6636</v>
       </c>
       <c r="F32" s="17">
-        <v>-6636</v>
+        <v>-1988</v>
       </c>
       <c r="G32" s="17">
-        <v>-1988</v>
+        <v>-38755</v>
       </c>
       <c r="H32" s="17">
-        <v>-38755</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-165065</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>-335707</v>
+        <v>-350029</v>
       </c>
       <c r="E33" s="19">
-        <v>-350029</v>
+        <v>-141554</v>
       </c>
       <c r="F33" s="19">
-        <v>-141554</v>
+        <v>694757</v>
       </c>
       <c r="G33" s="19">
-        <v>694757</v>
+        <v>-68960</v>
       </c>
       <c r="H33" s="19">
-        <v>-68960</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1005904</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>39</v>
       </c>
@@ -1266,16 +1301,16 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>0</v>
+        <v>4562</v>
       </c>
       <c r="E35" s="15">
-        <v>4562</v>
+        <v>0</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
@@ -1287,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>41</v>
       </c>
@@ -1308,7 +1343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
@@ -1329,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1350,70 +1385,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>2665100</v>
+        <v>2051079</v>
       </c>
       <c r="E39" s="15">
-        <v>2051079</v>
+        <v>1296335</v>
       </c>
       <c r="F39" s="15">
-        <v>1296335</v>
+        <v>1503946</v>
       </c>
       <c r="G39" s="15">
-        <v>1503946</v>
+        <v>1669810</v>
       </c>
       <c r="H39" s="15">
-        <v>1669810</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1808009</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-2054102</v>
+        <v>-1361712</v>
       </c>
       <c r="E40" s="11">
-        <v>-1361712</v>
+        <v>-1371726</v>
       </c>
       <c r="F40" s="11">
-        <v>-1371726</v>
+        <v>-1780579</v>
       </c>
       <c r="G40" s="11">
-        <v>-1780579</v>
+        <v>-1581426</v>
       </c>
       <c r="H40" s="11">
-        <v>-1581426</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2033557</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-137790</v>
+        <v>-149397</v>
       </c>
       <c r="E41" s="15">
-        <v>-149397</v>
+        <v>-99192</v>
       </c>
       <c r="F41" s="15">
-        <v>-99192</v>
+        <v>-257325</v>
       </c>
       <c r="G41" s="15">
-        <v>-257325</v>
+        <v>-178484</v>
       </c>
       <c r="H41" s="15">
-        <v>-178484</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-406443</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
@@ -1434,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>49</v>
       </c>
@@ -1455,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
@@ -1476,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1497,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1518,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1539,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1560,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1581,142 +1616,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-73548</v>
+        <v>-155364</v>
       </c>
       <c r="E50" s="11">
-        <v>-155364</v>
+        <v>-81569</v>
       </c>
       <c r="F50" s="11">
-        <v>-81569</v>
+        <v>20151</v>
       </c>
       <c r="G50" s="11">
-        <v>20151</v>
+        <v>-93621</v>
       </c>
       <c r="H50" s="11">
-        <v>-93621</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-343180</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>399660</v>
+        <v>389168</v>
       </c>
       <c r="E51" s="17">
-        <v>389168</v>
+        <v>-256152</v>
       </c>
       <c r="F51" s="17">
-        <v>-256152</v>
+        <v>-513807</v>
       </c>
       <c r="G51" s="17">
-        <v>-513807</v>
+        <v>-183721</v>
       </c>
       <c r="H51" s="17">
-        <v>-183721</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-975171</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>63953</v>
+        <v>39139</v>
       </c>
       <c r="E52" s="19">
-        <v>39139</v>
+        <v>-397706</v>
       </c>
       <c r="F52" s="19">
-        <v>-397706</v>
+        <v>180950</v>
       </c>
       <c r="G52" s="19">
-        <v>180950</v>
+        <v>-252681</v>
       </c>
       <c r="H52" s="19">
-        <v>-252681</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>30733</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>507591</v>
+        <v>567530</v>
       </c>
       <c r="E53" s="15">
-        <v>567530</v>
-      </c>
-      <c r="F53" s="15">
         <v>614192</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="F53" s="15" t="s">
         <v>42</v>
       </c>
+      <c r="G53" s="15">
+        <v>395256</v>
+      </c>
       <c r="H53" s="15">
-        <v>395256</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>142575</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>-4014</v>
+        <v>7523</v>
       </c>
       <c r="E54" s="11">
-        <v>7523</v>
+        <v>0</v>
       </c>
       <c r="F54" s="11">
-        <v>0</v>
+        <v>-2180</v>
       </c>
       <c r="G54" s="11">
-        <v>-2180</v>
+        <v>0</v>
       </c>
       <c r="H54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5651</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>567530</v>
+        <v>614192</v>
       </c>
       <c r="E55" s="17">
-        <v>614192</v>
+        <v>216486</v>
       </c>
       <c r="F55" s="17">
-        <v>216486</v>
+        <v>395256</v>
       </c>
       <c r="G55" s="17">
-        <v>395256</v>
+        <v>142575</v>
       </c>
       <c r="H55" s="17">
-        <v>142575</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>178959</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>-4562</v>
+        <v>0</v>
       </c>
       <c r="E56" s="11">
-        <v>870390</v>
+        <v>0</v>
       </c>
       <c r="F56" s="11">
         <v>0</v>
@@ -1728,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>

--- a/database/industries/shoyande/shegol/cashflow/quarterly.xlsx
+++ b/database/industries/shoyande/shegol/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shegol\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4DFE4F-44E1-4ADE-A5CE-272164D48157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF548118-5A5C-4F88-9567-A8045B334FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-07-30 (3)</t>
+  </si>
+  <si>
+    <t>1400-11-27 (11)</t>
+  </si>
+  <si>
+    <t>1401-01-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-06-15 (6)</t>
+  </si>
+  <si>
+    <t>1401-08-06 (3)</t>
   </si>
   <si>
     <t>1401-10-30 (7)</t>
@@ -692,20 +722,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -713,8 +746,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +762,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -735,8 +778,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -744,8 +792,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -755,8 +808,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,8 +824,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -775,8 +838,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -796,29 +864,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,10 +924,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -837,73 +940,123 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>524715</v>
+      </c>
+      <c r="E12" s="15">
+        <v>-1108012</v>
+      </c>
+      <c r="F12" s="15">
+        <v>-831226</v>
+      </c>
+      <c r="G12" s="15">
+        <v>733010</v>
+      </c>
+      <c r="H12" s="15">
+        <v>-40437</v>
+      </c>
+      <c r="I12" s="15">
         <v>266197</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>-67251</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>785357</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>12148</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>1296702</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-69156</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-76041</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-24090</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-120341</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-128809</v>
+      </c>
+      <c r="I13" s="11">
         <v>-118770</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>-67667</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>-88612</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>-42353</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>-125733</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>455559</v>
+      </c>
+      <c r="E14" s="17">
+        <v>-1184053</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-855316</v>
+      </c>
+      <c r="G14" s="17">
+        <v>612669</v>
+      </c>
+      <c r="H14" s="17">
+        <v>-169246</v>
+      </c>
+      <c r="I14" s="17">
         <v>147427</v>
       </c>
-      <c r="E14" s="17">
+      <c r="J14" s="17">
         <v>-134918</v>
       </c>
-      <c r="F14" s="17">
+      <c r="K14" s="17">
         <v>696745</v>
       </c>
-      <c r="G14" s="17">
+      <c r="L14" s="17">
         <v>-30205</v>
       </c>
-      <c r="H14" s="17">
+      <c r="M14" s="17">
         <v>1170969</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -911,52 +1064,87 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>-2</v>
+      </c>
+      <c r="E16" s="15">
+        <v>2</v>
+      </c>
+      <c r="F16" s="15">
+        <v>2</v>
+      </c>
+      <c r="G16" s="15">
+        <v>-2</v>
+      </c>
+      <c r="H16" s="15">
+        <v>292</v>
+      </c>
+      <c r="I16" s="15">
         <v>284</v>
       </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>-29900</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-101168</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-325471</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-125603</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-174735</v>
+      </c>
+      <c r="I17" s="11">
         <v>-502879</v>
       </c>
-      <c r="E17" s="11">
+      <c r="J17" s="11">
         <v>-58547</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>-2847</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>-41940</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>-14158</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -974,10 +1162,25 @@
       <c r="H18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -995,31 +1198,61 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>-295</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-2100</v>
+      </c>
+      <c r="H20" s="15">
+        <v>-250</v>
+      </c>
+      <c r="I20" s="15">
         <v>-580</v>
       </c>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
         <v>-814</v>
       </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
         <v>-8</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1037,10 +1270,25 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1058,10 +1306,25 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1079,10 +1342,25 @@
       <c r="H23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
@@ -1092,60 +1370,105 @@
         <v>0</v>
       </c>
       <c r="F24" s="15">
-        <v>0</v>
+        <v>-40000</v>
       </c>
       <c r="G24" s="15">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
         <v>-111967</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
         <v>49260</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
         <v>-40000</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>61500</v>
       </c>
       <c r="E26" s="15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F26" s="15">
         <v>0</v>
       </c>
       <c r="G26" s="15">
-        <v>0</v>
+        <v>-40000</v>
       </c>
       <c r="H26" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1163,10 +1486,25 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1184,10 +1522,25 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1205,94 +1558,169 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>26</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
         <v>10</v>
       </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
+      <c r="H30" s="15">
+        <v>-10</v>
+      </c>
+      <c r="I30" s="15">
+        <v>10</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
         <v>20</v>
       </c>
-      <c r="H30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>2466</v>
+      </c>
+      <c r="E31" s="11">
+        <v>2037</v>
+      </c>
+      <c r="F31" s="11">
+        <v>3559</v>
+      </c>
+      <c r="G31" s="11">
+        <v>8544</v>
+      </c>
+      <c r="H31" s="11">
+        <v>8242</v>
+      </c>
+      <c r="I31" s="11">
         <v>5709</v>
       </c>
-      <c r="E31" s="11">
+      <c r="J31" s="11">
         <v>2651</v>
       </c>
-      <c r="F31" s="11">
+      <c r="K31" s="11">
         <v>1673</v>
       </c>
-      <c r="G31" s="11">
+      <c r="L31" s="11">
         <v>3165</v>
       </c>
-      <c r="H31" s="11">
+      <c r="M31" s="11">
         <v>596</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>35064</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-99104</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-362205</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-119151</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-166461</v>
+      </c>
+      <c r="I32" s="17">
         <v>-497456</v>
       </c>
-      <c r="E32" s="17">
+      <c r="J32" s="17">
         <v>-6636</v>
       </c>
-      <c r="F32" s="17">
+      <c r="K32" s="17">
         <v>-1988</v>
       </c>
-      <c r="G32" s="17">
+      <c r="L32" s="17">
         <v>-38755</v>
       </c>
-      <c r="H32" s="17">
+      <c r="M32" s="17">
         <v>-165065</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>490623</v>
+      </c>
+      <c r="E33" s="19">
+        <v>-1283157</v>
+      </c>
+      <c r="F33" s="19">
+        <v>-1217521</v>
+      </c>
+      <c r="G33" s="19">
+        <v>493518</v>
+      </c>
+      <c r="H33" s="19">
+        <v>-335707</v>
+      </c>
+      <c r="I33" s="19">
         <v>-350029</v>
       </c>
-      <c r="E33" s="19">
+      <c r="J33" s="19">
         <v>-141554</v>
       </c>
-      <c r="F33" s="19">
+      <c r="K33" s="19">
         <v>694757</v>
       </c>
-      <c r="G33" s="19">
+      <c r="L33" s="19">
         <v>-68960</v>
       </c>
-      <c r="H33" s="19">
+      <c r="M33" s="19">
         <v>1005904</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1300,52 +1728,87 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <v>25048</v>
+      </c>
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15">
         <v>4562</v>
       </c>
-      <c r="E35" s="15">
-        <v>0</v>
-      </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15">
-        <v>0</v>
-      </c>
-      <c r="H35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1363,10 +1826,25 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1384,73 +1862,133 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
+        <v>960720</v>
+      </c>
+      <c r="E39" s="15">
+        <v>1176300</v>
+      </c>
+      <c r="F39" s="15">
+        <v>2394160</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1235795</v>
+      </c>
+      <c r="H39" s="15">
+        <v>2665100</v>
+      </c>
+      <c r="I39" s="15">
         <v>2051079</v>
       </c>
-      <c r="E39" s="15">
+      <c r="J39" s="15">
         <v>1296335</v>
       </c>
-      <c r="F39" s="15">
+      <c r="K39" s="15">
         <v>1503946</v>
       </c>
-      <c r="G39" s="15">
+      <c r="L39" s="15">
         <v>1669810</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>1808009</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>-403550</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-354572</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-1019848</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-1466385</v>
+      </c>
+      <c r="H40" s="11">
+        <v>-2054102</v>
+      </c>
+      <c r="I40" s="11">
         <v>-1361712</v>
       </c>
-      <c r="E40" s="11">
+      <c r="J40" s="11">
         <v>-1371726</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>-1780579</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>-1581426</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>-2033557</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-26516</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-35557</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-83674</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-141797</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-137790</v>
+      </c>
+      <c r="I41" s="15">
         <v>-149397</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>-99192</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>-257325</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>-178484</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>-406443</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -1468,10 +2006,25 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -1489,10 +2042,25 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -1510,10 +2078,25 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1531,10 +2114,25 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1552,10 +2150,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1573,10 +2186,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1594,10 +2222,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1615,136 +2258,241 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-804047</v>
+      </c>
+      <c r="E50" s="11">
+        <v>538896</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-121410</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-36452</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-73548</v>
+      </c>
+      <c r="I50" s="11">
         <v>-155364</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
         <v>-81569</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>20151</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>-93621</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>-343180</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>-273393</v>
+      </c>
+      <c r="E51" s="17">
+        <v>1325067</v>
+      </c>
+      <c r="F51" s="17">
+        <v>1169228</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-383791</v>
+      </c>
+      <c r="H51" s="17">
+        <v>399660</v>
+      </c>
+      <c r="I51" s="17">
         <v>389168</v>
       </c>
-      <c r="E51" s="17">
+      <c r="J51" s="17">
         <v>-256152</v>
       </c>
-      <c r="F51" s="17">
+      <c r="K51" s="17">
         <v>-513807</v>
       </c>
-      <c r="G51" s="17">
+      <c r="L51" s="17">
         <v>-183721</v>
       </c>
-      <c r="H51" s="17">
+      <c r="M51" s="17">
         <v>-975171</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>217230</v>
+      </c>
+      <c r="E52" s="19">
+        <v>41910</v>
+      </c>
+      <c r="F52" s="19">
+        <v>-48293</v>
+      </c>
+      <c r="G52" s="19">
+        <v>109727</v>
+      </c>
+      <c r="H52" s="19">
+        <v>63953</v>
+      </c>
+      <c r="I52" s="19">
         <v>39139</v>
       </c>
-      <c r="E52" s="19">
+      <c r="J52" s="19">
         <v>-397706</v>
       </c>
-      <c r="F52" s="19">
+      <c r="K52" s="19">
         <v>180950</v>
       </c>
-      <c r="G52" s="19">
+      <c r="L52" s="19">
         <v>-252681</v>
       </c>
-      <c r="H52" s="19">
+      <c r="M52" s="19">
         <v>30733</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>139973</v>
+      </c>
+      <c r="E53" s="15">
+        <v>357203</v>
+      </c>
+      <c r="F53" s="15">
+        <v>425336</v>
+      </c>
+      <c r="G53" s="15">
+        <v>377043</v>
+      </c>
+      <c r="H53" s="15">
+        <v>507591</v>
+      </c>
+      <c r="I53" s="15">
         <v>567530</v>
       </c>
-      <c r="E53" s="15">
+      <c r="J53" s="15">
         <v>614192</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" s="15">
+      <c r="K53" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53" s="15">
         <v>395256</v>
       </c>
-      <c r="H53" s="15">
+      <c r="M53" s="15">
         <v>142575</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>26223</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>20821</v>
+      </c>
+      <c r="H54" s="11">
+        <v>-4014</v>
+      </c>
+      <c r="I54" s="11">
         <v>7523</v>
       </c>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
         <v>-2180</v>
       </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
         <v>5651</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>357203</v>
+      </c>
+      <c r="E55" s="17">
+        <v>425336</v>
+      </c>
+      <c r="F55" s="17">
+        <v>377043</v>
+      </c>
+      <c r="G55" s="17">
+        <v>507591</v>
+      </c>
+      <c r="H55" s="17">
+        <v>567530</v>
+      </c>
+      <c r="I55" s="17">
         <v>614192</v>
       </c>
-      <c r="E55" s="17">
+      <c r="J55" s="17">
         <v>216486</v>
       </c>
-      <c r="F55" s="17">
+      <c r="K55" s="17">
         <v>395256</v>
       </c>
-      <c r="G55" s="17">
+      <c r="L55" s="17">
         <v>142575</v>
       </c>
-      <c r="H55" s="17">
+      <c r="M55" s="17">
         <v>178959</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
@@ -1757,13 +2505,28 @@
         <v>0</v>
       </c>
       <c r="G56" s="11">
-        <v>0</v>
+        <v>874952</v>
       </c>
       <c r="H56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-4562</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1771,6 +2534,11 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/shoyande/shegol/cashflow/quarterly.xlsx
+++ b/database/industries/shoyande/shegol/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF548118-5A5C-4F88-9567-A8045B334FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A1C3AE-C11D-4299-ADEB-548E252B49FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-07-30 (3)</t>
-  </si>
-  <si>
     <t>1400-11-27 (11)</t>
   </si>
   <si>
@@ -85,10 +82,10 @@
     <t>1401-08-06 (3)</t>
   </si>
   <si>
-    <t>1401-10-30 (7)</t>
-  </si>
-  <si>
-    <t>1401-01-30</t>
+    <t>1401-12-16 (8)</t>
+  </si>
+  <si>
+    <t>1402-02-03 (2)</t>
   </si>
   <si>
     <t>1401-06-15 (2)</t>
@@ -97,7 +94,10 @@
     <t>1401-08-06</t>
   </si>
   <si>
-    <t>1401-10-30</t>
+    <t>1402-02-03 (3)</t>
+  </si>
+  <si>
+    <t>1402-02-03</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -726,19 +726,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -752,7 +752,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -784,7 +784,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -798,7 +798,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -844,7 +844,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -880,7 +880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -916,7 +916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -930,7 +930,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -946,115 +946,115 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>524715</v>
+        <v>-1108012</v>
       </c>
       <c r="E12" s="15">
-        <v>-1108012</v>
+        <v>-831226</v>
       </c>
       <c r="F12" s="15">
-        <v>-831226</v>
+        <v>733010</v>
       </c>
       <c r="G12" s="15">
-        <v>733010</v>
+        <v>-40437</v>
       </c>
       <c r="H12" s="15">
-        <v>-40437</v>
+        <v>266197</v>
       </c>
       <c r="I12" s="15">
-        <v>266197</v>
+        <v>-67251</v>
       </c>
       <c r="J12" s="15">
-        <v>-67251</v>
+        <v>785357</v>
       </c>
       <c r="K12" s="15">
-        <v>785357</v>
+        <v>12148</v>
       </c>
       <c r="L12" s="15">
-        <v>12148</v>
+        <v>1132311</v>
       </c>
       <c r="M12" s="15">
-        <v>1296702</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>625201</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-69156</v>
+        <v>-76041</v>
       </c>
       <c r="E13" s="11">
-        <v>-76041</v>
+        <v>-24090</v>
       </c>
       <c r="F13" s="11">
-        <v>-24090</v>
+        <v>-120341</v>
       </c>
       <c r="G13" s="11">
-        <v>-120341</v>
+        <v>-128809</v>
       </c>
       <c r="H13" s="11">
-        <v>-128809</v>
+        <v>-118770</v>
       </c>
       <c r="I13" s="11">
-        <v>-118770</v>
+        <v>-67667</v>
       </c>
       <c r="J13" s="11">
-        <v>-67667</v>
+        <v>-88612</v>
       </c>
       <c r="K13" s="11">
-        <v>-88612</v>
+        <v>-42353</v>
       </c>
       <c r="L13" s="11">
-        <v>-42353</v>
+        <v>-136064</v>
       </c>
       <c r="M13" s="11">
-        <v>-125733</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-32962</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>455559</v>
+        <v>-1184053</v>
       </c>
       <c r="E14" s="17">
-        <v>-1184053</v>
+        <v>-855316</v>
       </c>
       <c r="F14" s="17">
-        <v>-855316</v>
+        <v>612669</v>
       </c>
       <c r="G14" s="17">
-        <v>612669</v>
+        <v>-169246</v>
       </c>
       <c r="H14" s="17">
-        <v>-169246</v>
+        <v>147427</v>
       </c>
       <c r="I14" s="17">
-        <v>147427</v>
+        <v>-134918</v>
       </c>
       <c r="J14" s="17">
-        <v>-134918</v>
+        <v>696745</v>
       </c>
       <c r="K14" s="17">
-        <v>696745</v>
+        <v>-30205</v>
       </c>
       <c r="L14" s="17">
-        <v>-30205</v>
+        <v>996247</v>
       </c>
       <c r="M14" s="17">
-        <v>1170969</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>592239</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1070,28 +1070,28 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E16" s="15">
         <v>2</v>
       </c>
       <c r="F16" s="15">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G16" s="15">
-        <v>-2</v>
+        <v>292</v>
       </c>
       <c r="H16" s="15">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I16" s="15">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="J16" s="15">
         <v>0</v>
@@ -1100,49 +1100,49 @@
         <v>0</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="M16" s="15">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-29900</v>
+        <v>-101168</v>
       </c>
       <c r="E17" s="11">
-        <v>-101168</v>
+        <v>-325471</v>
       </c>
       <c r="F17" s="11">
-        <v>-325471</v>
+        <v>-125603</v>
       </c>
       <c r="G17" s="11">
-        <v>-125603</v>
+        <v>-174735</v>
       </c>
       <c r="H17" s="11">
-        <v>-174735</v>
+        <v>-502879</v>
       </c>
       <c r="I17" s="11">
-        <v>-502879</v>
+        <v>-58547</v>
       </c>
       <c r="J17" s="11">
-        <v>-58547</v>
+        <v>-2847</v>
       </c>
       <c r="K17" s="11">
-        <v>-2847</v>
+        <v>-41940</v>
       </c>
       <c r="L17" s="11">
-        <v>-41940</v>
+        <v>11446</v>
       </c>
       <c r="M17" s="11">
-        <v>-14158</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-112013</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>-295</v>
       </c>
       <c r="F20" s="15">
-        <v>-295</v>
+        <v>-2100</v>
       </c>
       <c r="G20" s="15">
-        <v>-2100</v>
+        <v>-250</v>
       </c>
       <c r="H20" s="15">
-        <v>-250</v>
+        <v>-580</v>
       </c>
       <c r="I20" s="15">
-        <v>-580</v>
+        <v>0</v>
       </c>
       <c r="J20" s="15">
-        <v>0</v>
+        <v>-814</v>
       </c>
       <c r="K20" s="15">
-        <v>-814</v>
+        <v>0</v>
       </c>
       <c r="L20" s="15">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="M20" s="15">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>-40000</v>
       </c>
       <c r="F24" s="15">
-        <v>-40000</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="15">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="H24" s="15">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="15">
-        <v>-111967</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E25" s="11">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>0</v>
+        <v>49260</v>
       </c>
       <c r="J25" s="11">
-        <v>49260</v>
+        <v>0</v>
       </c>
       <c r="K25" s="11">
         <v>0</v>
@@ -1427,25 +1427,25 @@
         <v>0</v>
       </c>
       <c r="M25" s="11">
-        <v>-40000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>61500</v>
+        <v>-1</v>
       </c>
       <c r="E26" s="15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="15">
-        <v>0</v>
+        <v>-40000</v>
       </c>
       <c r="G26" s="15">
-        <v>-40000</v>
+        <v>0</v>
       </c>
       <c r="H26" s="15">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>43</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
@@ -1574,151 +1574,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E30" s="15">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F30" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G30" s="15">
+        <v>-10</v>
+      </c>
+      <c r="H30" s="15">
         <v>10</v>
       </c>
-      <c r="H30" s="15">
-        <v>-10</v>
-      </c>
       <c r="I30" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J30" s="15">
         <v>0</v>
       </c>
       <c r="K30" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L30" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M30" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>2466</v>
+        <v>2037</v>
       </c>
       <c r="E31" s="11">
-        <v>2037</v>
+        <v>3559</v>
       </c>
       <c r="F31" s="11">
-        <v>3559</v>
+        <v>8544</v>
       </c>
       <c r="G31" s="11">
-        <v>8544</v>
+        <v>8242</v>
       </c>
       <c r="H31" s="11">
-        <v>8242</v>
+        <v>5709</v>
       </c>
       <c r="I31" s="11">
-        <v>5709</v>
+        <v>2651</v>
       </c>
       <c r="J31" s="11">
-        <v>2651</v>
+        <v>1673</v>
       </c>
       <c r="K31" s="11">
-        <v>1673</v>
+        <v>3165</v>
       </c>
       <c r="L31" s="11">
-        <v>3165</v>
+        <v>596</v>
       </c>
       <c r="M31" s="11">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>35064</v>
+        <v>-99104</v>
       </c>
       <c r="E32" s="17">
-        <v>-99104</v>
+        <v>-362205</v>
       </c>
       <c r="F32" s="17">
-        <v>-362205</v>
+        <v>-119151</v>
       </c>
       <c r="G32" s="17">
-        <v>-119151</v>
+        <v>-166461</v>
       </c>
       <c r="H32" s="17">
-        <v>-166461</v>
+        <v>-497456</v>
       </c>
       <c r="I32" s="17">
-        <v>-497456</v>
+        <v>-6636</v>
       </c>
       <c r="J32" s="17">
-        <v>-6636</v>
+        <v>-1988</v>
       </c>
       <c r="K32" s="17">
-        <v>-1988</v>
+        <v>-38755</v>
       </c>
       <c r="L32" s="17">
-        <v>-38755</v>
+        <v>12506</v>
       </c>
       <c r="M32" s="17">
-        <v>-165065</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-109736</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>490623</v>
+        <v>-1283157</v>
       </c>
       <c r="E33" s="19">
-        <v>-1283157</v>
+        <v>-1217521</v>
       </c>
       <c r="F33" s="19">
-        <v>-1217521</v>
+        <v>493518</v>
       </c>
       <c r="G33" s="19">
-        <v>493518</v>
+        <v>-335707</v>
       </c>
       <c r="H33" s="19">
-        <v>-335707</v>
+        <v>-350029</v>
       </c>
       <c r="I33" s="19">
-        <v>-350029</v>
+        <v>-141554</v>
       </c>
       <c r="J33" s="19">
-        <v>-141554</v>
+        <v>694757</v>
       </c>
       <c r="K33" s="19">
-        <v>694757</v>
+        <v>-68960</v>
       </c>
       <c r="L33" s="19">
-        <v>-68960</v>
+        <v>1008753</v>
       </c>
       <c r="M33" s="19">
-        <v>1005904</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>482503</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>49</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>50</v>
       </c>
@@ -1746,16 +1746,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="15">
-        <v>0</v>
+        <v>25048</v>
       </c>
       <c r="G35" s="15">
-        <v>25048</v>
+        <v>0</v>
       </c>
       <c r="H35" s="15">
-        <v>0</v>
+        <v>4562</v>
       </c>
       <c r="I35" s="15">
-        <v>4562</v>
+        <v>0</v>
       </c>
       <c r="J35" s="15">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
@@ -1787,11 +1787,11 @@
       <c r="G36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>52</v>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>52</v>
@@ -1799,14 +1799,14 @@
       <c r="K36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1878,115 +1878,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>960720</v>
+        <v>1176300</v>
       </c>
       <c r="E39" s="15">
-        <v>1176300</v>
+        <v>2394160</v>
       </c>
       <c r="F39" s="15">
-        <v>2394160</v>
+        <v>1235795</v>
       </c>
       <c r="G39" s="15">
-        <v>1235795</v>
+        <v>2665100</v>
       </c>
       <c r="H39" s="15">
-        <v>2665100</v>
+        <v>2051079</v>
       </c>
       <c r="I39" s="15">
-        <v>2051079</v>
+        <v>1296335</v>
       </c>
       <c r="J39" s="15">
-        <v>1296335</v>
+        <v>1503946</v>
       </c>
       <c r="K39" s="15">
-        <v>1503946</v>
+        <v>1669810</v>
       </c>
       <c r="L39" s="15">
-        <v>1669810</v>
+        <v>1808009</v>
       </c>
       <c r="M39" s="15">
-        <v>1808009</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1054195</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-403550</v>
+        <v>-354572</v>
       </c>
       <c r="E40" s="11">
-        <v>-354572</v>
+        <v>-1019848</v>
       </c>
       <c r="F40" s="11">
-        <v>-1019848</v>
+        <v>-1466385</v>
       </c>
       <c r="G40" s="11">
-        <v>-1466385</v>
+        <v>-2054102</v>
       </c>
       <c r="H40" s="11">
-        <v>-2054102</v>
+        <v>-1361712</v>
       </c>
       <c r="I40" s="11">
-        <v>-1361712</v>
+        <v>-1371726</v>
       </c>
       <c r="J40" s="11">
-        <v>-1371726</v>
+        <v>-1780579</v>
       </c>
       <c r="K40" s="11">
-        <v>-1780579</v>
+        <v>-1581426</v>
       </c>
       <c r="L40" s="11">
-        <v>-1581426</v>
+        <v>-2037042</v>
       </c>
       <c r="M40" s="11">
-        <v>-2033557</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1432013</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-26516</v>
+        <v>-35557</v>
       </c>
       <c r="E41" s="15">
-        <v>-35557</v>
+        <v>-83674</v>
       </c>
       <c r="F41" s="15">
-        <v>-83674</v>
+        <v>-141797</v>
       </c>
       <c r="G41" s="15">
-        <v>-141797</v>
+        <v>-137790</v>
       </c>
       <c r="H41" s="15">
-        <v>-137790</v>
+        <v>-149397</v>
       </c>
       <c r="I41" s="15">
-        <v>-149397</v>
+        <v>-99192</v>
       </c>
       <c r="J41" s="15">
-        <v>-99192</v>
+        <v>-257325</v>
       </c>
       <c r="K41" s="15">
-        <v>-257325</v>
+        <v>-178484</v>
       </c>
       <c r="L41" s="15">
-        <v>-178484</v>
+        <v>-402958</v>
       </c>
       <c r="M41" s="15">
-        <v>-406443</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-140830</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>58</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>59</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>60</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2274,223 +2274,223 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-804047</v>
+        <v>538896</v>
       </c>
       <c r="E50" s="11">
-        <v>538896</v>
+        <v>-121410</v>
       </c>
       <c r="F50" s="11">
-        <v>-121410</v>
+        <v>-36452</v>
       </c>
       <c r="G50" s="11">
-        <v>-36452</v>
+        <v>-73548</v>
       </c>
       <c r="H50" s="11">
-        <v>-73548</v>
+        <v>-155364</v>
       </c>
       <c r="I50" s="11">
-        <v>-155364</v>
+        <v>-81569</v>
       </c>
       <c r="J50" s="11">
-        <v>-81569</v>
+        <v>20151</v>
       </c>
       <c r="K50" s="11">
-        <v>20151</v>
+        <v>-93621</v>
       </c>
       <c r="L50" s="11">
-        <v>-93621</v>
+        <v>-343180</v>
       </c>
       <c r="M50" s="11">
-        <v>-343180</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-22932</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-273393</v>
+        <v>1325067</v>
       </c>
       <c r="E51" s="17">
-        <v>1325067</v>
+        <v>1169228</v>
       </c>
       <c r="F51" s="17">
-        <v>1169228</v>
+        <v>-383791</v>
       </c>
       <c r="G51" s="17">
-        <v>-383791</v>
+        <v>399660</v>
       </c>
       <c r="H51" s="17">
-        <v>399660</v>
+        <v>389168</v>
       </c>
       <c r="I51" s="17">
-        <v>389168</v>
+        <v>-256152</v>
       </c>
       <c r="J51" s="17">
-        <v>-256152</v>
+        <v>-513807</v>
       </c>
       <c r="K51" s="17">
-        <v>-513807</v>
+        <v>-183721</v>
       </c>
       <c r="L51" s="17">
-        <v>-183721</v>
+        <v>-975171</v>
       </c>
       <c r="M51" s="17">
-        <v>-975171</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-541580</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>217230</v>
+        <v>41910</v>
       </c>
       <c r="E52" s="19">
-        <v>41910</v>
+        <v>-48293</v>
       </c>
       <c r="F52" s="19">
-        <v>-48293</v>
+        <v>109727</v>
       </c>
       <c r="G52" s="19">
-        <v>109727</v>
+        <v>63953</v>
       </c>
       <c r="H52" s="19">
-        <v>63953</v>
+        <v>39139</v>
       </c>
       <c r="I52" s="19">
-        <v>39139</v>
+        <v>-397706</v>
       </c>
       <c r="J52" s="19">
-        <v>-397706</v>
+        <v>180950</v>
       </c>
       <c r="K52" s="19">
-        <v>180950</v>
+        <v>-252681</v>
       </c>
       <c r="L52" s="19">
-        <v>-252681</v>
+        <v>33582</v>
       </c>
       <c r="M52" s="19">
-        <v>30733</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-59077</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>139973</v>
+        <v>357203</v>
       </c>
       <c r="E53" s="15">
-        <v>357203</v>
+        <v>425336</v>
       </c>
       <c r="F53" s="15">
-        <v>425336</v>
+        <v>377043</v>
       </c>
       <c r="G53" s="15">
-        <v>377043</v>
+        <v>507591</v>
       </c>
       <c r="H53" s="15">
-        <v>507591</v>
+        <v>567530</v>
       </c>
       <c r="I53" s="15">
-        <v>567530</v>
-      </c>
-      <c r="J53" s="15">
         <v>614192</v>
       </c>
-      <c r="K53" s="15" t="s">
+      <c r="J53" s="15" t="s">
         <v>52</v>
       </c>
+      <c r="K53" s="15">
+        <v>395256</v>
+      </c>
       <c r="L53" s="15">
-        <v>395256</v>
+        <v>142575</v>
       </c>
       <c r="M53" s="15">
-        <v>142575</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+        <v>181807</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>0</v>
+        <v>26223</v>
       </c>
       <c r="E54" s="11">
-        <v>26223</v>
+        <v>0</v>
       </c>
       <c r="F54" s="11">
-        <v>0</v>
+        <v>20821</v>
       </c>
       <c r="G54" s="11">
-        <v>20821</v>
+        <v>-4014</v>
       </c>
       <c r="H54" s="11">
-        <v>-4014</v>
+        <v>7523</v>
       </c>
       <c r="I54" s="11">
-        <v>7523</v>
+        <v>0</v>
       </c>
       <c r="J54" s="11">
-        <v>0</v>
+        <v>-2180</v>
       </c>
       <c r="K54" s="11">
-        <v>-2180</v>
+        <v>0</v>
       </c>
       <c r="L54" s="11">
-        <v>0</v>
+        <v>5650</v>
       </c>
       <c r="M54" s="11">
-        <v>5651</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>357203</v>
+        <v>425336</v>
       </c>
       <c r="E55" s="17">
-        <v>425336</v>
+        <v>377043</v>
       </c>
       <c r="F55" s="17">
-        <v>377043</v>
+        <v>507591</v>
       </c>
       <c r="G55" s="17">
-        <v>507591</v>
+        <v>567530</v>
       </c>
       <c r="H55" s="17">
-        <v>567530</v>
+        <v>614192</v>
       </c>
       <c r="I55" s="17">
-        <v>614192</v>
+        <v>216486</v>
       </c>
       <c r="J55" s="17">
-        <v>216486</v>
+        <v>395256</v>
       </c>
       <c r="K55" s="17">
-        <v>395256</v>
+        <v>142575</v>
       </c>
       <c r="L55" s="17">
-        <v>142575</v>
+        <v>181807</v>
       </c>
       <c r="M55" s="17">
-        <v>178959</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+        <v>122730</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -2502,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>0</v>
+        <v>874952</v>
       </c>
       <c r="G56" s="11">
-        <v>874952</v>
+        <v>-4562</v>
       </c>
       <c r="H56" s="11">
-        <v>-4562</v>
+        <v>0</v>
       </c>
       <c r="I56" s="11">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
